--- a/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\#DM TEST RAD_RSA 20240801\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D1337F-D9B8-4E2B-BCD0-A49648DDA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22BB58E-BCE7-494A-AD1B-5B4F5DAF41E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="300" windowWidth="27675" windowHeight="14775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="26955" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -3542,7 +3542,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4323,9 +4323,7 @@
       <c r="E18" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="32">
-        <v>45498</v>
-      </c>
+      <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
@@ -4488,9 +4486,7 @@
       <c r="E21" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="32">
-        <v>45498</v>
-      </c>
+      <c r="F21" s="32"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
@@ -4592,9 +4588,7 @@
       <c r="E23" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="32">
-        <v>45498</v>
-      </c>
+      <c r="F23" s="32"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
@@ -4879,9 +4873,7 @@
       <c r="E28" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F28" s="32">
-        <v>45498</v>
-      </c>
+      <c r="F28" s="32"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
@@ -4924,9 +4916,7 @@
       <c r="E29" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F29" s="32">
-        <v>45498</v>
-      </c>
+      <c r="F29" s="32"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
@@ -5030,9 +5020,7 @@
       <c r="E31" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F31" s="32">
-        <v>45498</v>
-      </c>
+      <c r="F31" s="32"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
@@ -5197,9 +5185,7 @@
       <c r="E34" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F34" s="32"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -5550,9 +5536,7 @@
       <c r="E41" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="F41" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F41" s="32"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
@@ -5715,9 +5699,7 @@
       <c r="E44" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F44" s="32"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
@@ -5758,9 +5740,7 @@
       <c r="E45" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="F45" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F45" s="32"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
@@ -5803,9 +5783,7 @@
       <c r="E46" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="F46" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F46" s="32"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
@@ -6151,9 +6129,7 @@
       <c r="E52" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F52" s="32"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
@@ -6257,9 +6233,7 @@
       <c r="E54" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="F54" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F54" s="32"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
@@ -6424,9 +6398,7 @@
       <c r="E57" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F57" s="32">
-        <v>45502</v>
-      </c>
+      <c r="F57" s="32"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
@@ -13464,6 +13436,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -13721,18 +13705,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13743,6 +13715,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DA7F5-158B-4F2F-BE68-E8B30B468193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13761,23 +13750,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>

--- a/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\#DM TEST RAD_RSA 20240801\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\#DM TEST RAD_RSA 20240902\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22BB58E-BCE7-494A-AD1B-5B4F5DAF41E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839F9B8-9B29-4715-B2EC-8061B481CD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="26955" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1395" windowWidth="22785" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="328">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -853,55 +853,34 @@
 </t>
   </si>
   <si>
+    <t>subject_application_vendor: ALMAVALUE_SRL</t>
+  </si>
+  <si>
     <t>subject_application_id: Doctor_Manager_DMFSE</t>
   </si>
   <si>
-    <t>subject_application_vendor: ALMAVALUE_SRL</t>
-  </si>
-  <si>
     <t>subject_application_version: 1.0</t>
   </si>
   <si>
-    <t>0ca6f28714614b22</t>
-  </si>
-  <si>
-    <t>2024-07-30T09:20:49Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.004435a4f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-30T09:21:47Z</t>
-  </si>
-  <si>
-    <t>7466ec2e90f2a0d9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.30f4909047^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-25T10:27:44Z</t>
-  </si>
-  <si>
-    <t>0bf4404eedb8ed0f</t>
+    <t>2024-09-10T14:19:56Z</t>
+  </si>
+  <si>
+    <t>ed31c63730a7e06e</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>Campo token JWT non valido: Il campo purpose_of_use non è valorizzato</t>
   </si>
   <si>
     <t>Viene segnalato un errore di connessione al gateway causato dal campo purpose_of_use non è valorizzato e si chiede di segnalare il problema all'amministratore di sistema.  L'operatore dedicato aggiungerà nel SW i parametri per la generazione dei token JWT corretti e procederà a validare/inviare nuovamente i referti.</t>
   </si>
   <si>
-    <t>2024-07-25T10:49:53Z</t>
-  </si>
-  <si>
-    <t>a1cc70753e6f5a85</t>
+    <t>2024-09-10T14:31:43Z</t>
+  </si>
+  <si>
+    <t>2a345eab162501b8</t>
   </si>
   <si>
     <t>Campo token JWT non valido: Il campo action_id non è corretto</t>
@@ -916,13 +895,13 @@
     <t>Viene segnalato un errore di timeout, ma il flusso applicativo prosegue con la produzione del referto</t>
   </si>
   <si>
-    <t>2024-07-25T11:56:51Z</t>
-  </si>
-  <si>
-    <t>b3db8ce1e5ae81a0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c7bda4b863^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-10T16:05:51Z</t>
+  </si>
+  <si>
+    <t>c77740a838f08af0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e4db3a1224^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'languageCode'. One of '{\"urn:hl7-org:v3\":confidentialityCode}' is expected.</t>
@@ -931,337 +910,355 @@
     <t>Questa tipologia di errore viene controlla al momento del salvataggio del referto, pertanto l'intervento di correzione avviene prima della generazione del referto. Nel caso in cui l'errore non venisse rilevato, sarà presente un elenco con tutti i referti non inviati al FSE2.0 con i rispettivi errori di validazione/invio, al fine di permettere all'operatore dedicato di correggere ed validare/inviare nuovamente i referti.</t>
   </si>
   <si>
-    <t>2024-07-25T12:23:30Z</t>
-  </si>
-  <si>
-    <t>50e19dc154cdb74a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.07dea8809f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-11T07:25:35Z</t>
+  </si>
+  <si>
+    <t>6ba4561b04cc6511</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.dc0a4fc45d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [Errore-46| codice fiscale 'provax00x00x000x' cittadino ed operatore: 16 cifre [A-Z0-9]{16}]</t>
   </si>
   <si>
-    <t>2024-07-25T12:50:26Z</t>
-  </si>
-  <si>
-    <t>83fa5eef80b826d6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.322a79bf3a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore semantico: [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.   ]</t>
-  </si>
-  <si>
-    <t>2024-07-25T13:34:40Z</t>
-  </si>
-  <si>
-    <t>95af0406801b5625</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c7b77f62e9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-11T07:47:54Z</t>
+  </si>
+  <si>
+    <t>9a36a23defccb75f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.50e16ebb5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico: [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i suoi sotto-elementi 'country', 'city' e 'streetAddressLine'.</t>
+  </si>
+  <si>
+    <t>2024-09-11T08:07:55Z</t>
+  </si>
+  <si>
+    <t>a4a32505dc318dd5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fd80875574^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-14| L'elemento ClinicalDocument/recordTaget/patientRole/patient/name DEVE riportare gli elementi 'given' e 'family']</t>
   </si>
   <si>
-    <t>2024-07-25T13:49:56Z</t>
-  </si>
-  <si>
-    <t>f7a23f8a1a9f5b60</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0e9f285246^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore vocabolario: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: 3211XX]</t>
-  </si>
-  <si>
-    <t>2024-07-25T13:57:26Z</t>
-  </si>
-  <si>
-    <t>67982dda67fbf4d5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6141c66a68^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-11T10:37:02Z</t>
+  </si>
+  <si>
+    <t>007f0af0c1e14c2a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6a816b0d9e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore vocabolario: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.2.9.6.2.7 v1.0.0, Codes: XXXX]</t>
+  </si>
+  <si>
+    <t>2024-09-11T14:14:27Z</t>
+  </si>
+  <si>
+    <t>6f2305e7f030157b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.18eca85e83^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'priorityCode'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id}' is expected.</t>
   </si>
   <si>
-    <t>2024-07-25T14:03:10Z</t>
-  </si>
-  <si>
-    <t>0375170673d8fdaf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.8c60eecbc4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore di sintassi: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'text'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.</t>
-  </si>
-  <si>
-    <t>2024-07-25T14:07:52Z</t>
-  </si>
-  <si>
-    <t>21ef0ca45179bf0d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ef1868cd27^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-11T15:59:56Z</t>
+  </si>
+  <si>
+    <t>efd56d9e9787ff69</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.459ec0fa71^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore vocabolario: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: null]</t>
+  </si>
+  <si>
+    <t>2024-09-12T07:25:27Z</t>
+  </si>
+  <si>
+    <t>080b33d6064ad0e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.e5f08bd933^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-b4| Sezione Referto: DEVE essere presente la sezione \"Referto\".],[ERRORE-b5| Sezione Referto: La sezione deve contenere l'elemento 'text'.]</t>
   </si>
   <si>
-    <t>2024-07-25T14:13:38Z</t>
-  </si>
-  <si>
-    <t>10bd1474d6f87418</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0aa53c7ae9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-12T07:43:14Z</t>
+  </si>
+  <si>
+    <t>2a9c5070a14d2cc8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.89d03bb064^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-b13| Sezione Precedenti Esami Eseguiti: La section deve contenere l'elemento 'text'.]</t>
   </si>
   <si>
-    <t>Il campo effectivetime/low ha sempre un valore di default. Se non è presente la data perché non la si conosce allora è presente il valore @nullFlavor = “UNK”.</t>
-  </si>
-  <si>
-    <t>2024-07-25T14:34:23Z</t>
-  </si>
-  <si>
-    <t>e45121bf1473bd33</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.5b96f83bf2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Se il referto prevede la sezione DICOM allora il campo è obbligatorio e l'applicatico effettua controlli preventivi sul dato inserito.</t>
+  </si>
+  <si>
+    <t>2024-09-12T09:04:59Z</t>
+  </si>
+  <si>
+    <t>67abdbb90fc24f7c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.d536b3e90d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-b26| Sezione Storia Clinica: La entry/organizer deve avere un elemento subject/relatedSubject il quale deve contenere l'elemento 'code'. ]</t>
   </si>
   <si>
-    <t>2024-07-25T14:42:06Z</t>
-  </si>
-  <si>
-    <t>ef3c8b67639b40c5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.53d1a95583^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Il campo effectivetime/low ha sempre un valore di default, se non è presente la data perché non è disponbile (es. il paziente non ricorda) allora è presente il valore @nullFlavor = “UNK”.</t>
+  </si>
+  <si>
+    <t>2024-09-12T09:26:16Z</t>
+  </si>
+  <si>
+    <t>d0fdb348ebaea32c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.86b173dea5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-b57| Sotto sezione Allergie: L'elemento entryRelationship/observation (Descrizione Agente) deve avere almeno un elemento 'participant' che dettaglia l'agente scatenante.]</t>
   </si>
   <si>
-    <t>2024-07-29T07:12:31Z</t>
-  </si>
-  <si>
-    <t>26fb5210458fc6f7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f37c5429ec^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore vocabolario:  Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 770.0XXX]</t>
-  </si>
-  <si>
-    <t>Se il referto prevede la sezione DICOM, il campo è obbligatorio</t>
-  </si>
-  <si>
-    <t>2024-07-29T08:11:55Z</t>
-  </si>
-  <si>
-    <t>6fba03c3b2fb7d46</t>
-  </si>
-  <si>
-    <t>2024-07-29T08:19:36Z</t>
-  </si>
-  <si>
-    <t>e086ed5bf2697eb7</t>
-  </si>
-  <si>
-    <t>2024-07-29T08:43:10Z</t>
-  </si>
-  <si>
-    <t>51691c8fb001c26b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.597f17a02b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T08:53:12Z</t>
-  </si>
-  <si>
-    <t>7faceae0c182a302</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4acc800fa5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T09:36:20Z</t>
-  </si>
-  <si>
-    <t>3196073ea0744cae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4e87252e2a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T09:41:00Z</t>
-  </si>
-  <si>
-    <t>0a1835e7ecc7c32a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.5ff511cdc4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T09:49:28Z</t>
-  </si>
-  <si>
-    <t>999a09ba9b3982c0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fd9c9a87e2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T09:55:42Z</t>
-  </si>
-  <si>
-    <t>859839cf06512fee</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.9f5a657759^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T10:05:17Z</t>
-  </si>
-  <si>
-    <t>521c0459de43a6ad</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4490d24850^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T10:12:24Z</t>
-  </si>
-  <si>
-    <t>4b131328a3a9bd5e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.cabb2c7dd6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T10:22:16Z</t>
-  </si>
-  <si>
-    <t>c41145d1733bdf0f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f2616db633^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T10:27:26Z</t>
-  </si>
-  <si>
-    <t>2f3fe2b7d4387b9e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.ac55ae608d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T10:33:25Z</t>
-  </si>
-  <si>
-    <t>cfb039a40884e56d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.4b0ca42beb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T10:47:41Z</t>
-  </si>
-  <si>
-    <t>b61578324adf6a62</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.467f4e7a10^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T11:51:34Z</t>
-  </si>
-  <si>
-    <t>c31fb5b785b00f64</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.56ae266633^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T11:57:58Z</t>
-  </si>
-  <si>
-    <t>eb143f40f821eb07</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.6e573824cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T12:05:31Z</t>
-  </si>
-  <si>
-    <t>fc39b609d77d597c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.e6f0dbeb8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T12:13:04Z</t>
-  </si>
-  <si>
-    <t>e6870e321f599d7d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3140c1f23e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-07-29T12:21:04Z</t>
-  </si>
-  <si>
-    <t>d20e3362fd9de21e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.a253d64f3d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-12T09:47:24Z</t>
+  </si>
+  <si>
+    <t>ad35bb75a2e84e84</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.11cf1c024d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore vocabolario: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: XXXX]</t>
+  </si>
+  <si>
+    <t>2024-09-12T16:01:59Z</t>
+  </si>
+  <si>
+    <t>2fc00a6323d96d88</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1d25b47b9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-12T16:06:07Z</t>
+  </si>
+  <si>
+    <t>a20fbea8f3d19a97</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2cf18d9a5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-12T16:25:15Z</t>
+  </si>
+  <si>
+    <t>54d1ab4c72c1f455</t>
+  </si>
+  <si>
+    <t>2024-09-13T06:52:07Z</t>
+  </si>
+  <si>
+    <t>fe6b53321249a188</t>
+  </si>
+  <si>
+    <t>Viene segnalato un errore di connessione al gateway causato dal campo action_id errato e si chiede di segnalare il problema all'amministratore di sistema. L'operatore dedicato aggiungerà nel SW i parametri per la generazione dei token JWT corretti e procederà a validare/inviare nuovamente i referti.</t>
+  </si>
+  <si>
+    <t>2024-09-13T09:49:29Z</t>
+  </si>
+  <si>
+    <t>1678d1ef68fba99e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.56bda671bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-13T10:05:59Z</t>
+  </si>
+  <si>
+    <t>b37a7b29b1b2b8c2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d5aebe7f01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-13T10:22:02Z</t>
+  </si>
+  <si>
+    <t>59f7ed1f868c1374</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d8cdafe64e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-13T10:29:57Z</t>
+  </si>
+  <si>
+    <t>36319a9525d04f8c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8d9f06859e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-13T15:05:50Z</t>
+  </si>
+  <si>
+    <t>45e3d08ada545c64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.f305208b38^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-13T15:11:06Z</t>
+  </si>
+  <si>
+    <t>eab326423932a68f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.0ffbb19095^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-44| Il codice fiscale 'provax00x00x000x' cittadino ed operatore deve essere costituito da 16 cifre [A-Z0-9]{16}]</t>
   </si>
   <si>
+    <t>2024-09-13T15:21:46Z</t>
+  </si>
+  <si>
+    <t>62412859784d71d2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.72d2f30517^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>Errore semantico: [ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]</t>
   </si>
   <si>
-    <t>Errore di sintass: ERROR: -1,-1 cvc-complex-type.2.4.a: Invalid content was found starting with element 'effectiveTime'. One of '{\"urn:hl7-org:v3\":realmCode, \"urn:hl7-org:v3\":typeId, \"urn:hl7-org:v3\":templateId, \"urn:hl7-org:v3\":id, \"urn:hl7-org:v3\":code}' is expected.</t>
+    <t>2024-09-13T15:27:46Z</t>
+  </si>
+  <si>
+    <t>595b9c84ee152482</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8e7a7c6846^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-13T15:56:25Z</t>
+  </si>
+  <si>
+    <t>aa868f4e2961d935</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.45450df7d3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore di sintassi: ERROR: -1,-1 cvc-pattern-valid: Value '' is not facet-valid with respect to pattern '[^\\s]+' for type 'cs'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'code' on element 'code' is not valid with respect to its type, 'cs'.,ERROR: -1,-1 cvc-datatype-valid.1.2.3: '' is not a valid value of union type 'uid'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'codeSystem' on element 'code' is not valid with respect to its type, 'uid'.,ERROR: -1,-1 cvc-minLength-valid: Value '' with length = '0' is not facet-valid with respect to minLength '1' for type 'st'.,ERROR: -1,-1 cvc-attribute.3: The value '' of attribute 'codeSystemName' on element 'code' is not valid with respect to its type, 'st'</t>
+  </si>
+  <si>
+    <t>2024-09-16T08:58:32Z</t>
+  </si>
+  <si>
+    <t>a186ea6de385accb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.296d706c5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-16T09:00:55Z</t>
+  </si>
+  <si>
+    <t>20339e244becd3d6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.b0660efe50^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-b4| Sezione Referto: la sezione DEVE essere presente],[ERRORE-b5| Sezione Referto: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
+    <t>2024-09-16T09:02:55Z</t>
+  </si>
+  <si>
+    <t>811437256508d82f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.67eb73c97e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>Errore semantico: [ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
+    <t>2024-09-16T09:07:48Z</t>
+  </si>
+  <si>
+    <t>4b6b84262ea149cc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3334341c08^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>Errore semantico: [ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']</t>
   </si>
   <si>
-    <t>Errore semantico: [ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
+    <t>2024-09-16T09:16:41Z</t>
+  </si>
+  <si>
+    <t>eff54b2717e22783</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.488e2da4de^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore semantico:  [ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
+  </si>
+  <si>
+    <t>2024-09-16T09:27:28Z</t>
+  </si>
+  <si>
+    <t>43b399060489fd9d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2e520f556d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore semantico: [ERRORE-b57| Sotto-sezione Allergie: entry/act/entryRelationship/observation deve contenere almeno un elemento 'participant']</t>
   </si>
   <si>
-    <t>Errore vocabolario: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 251.2XXX]</t>
-  </si>
-  <si>
-    <t>Viene segnalato un errore di connessione al gateway causato dal campo action_id errato e si chiede di segnalare il problema all'amministratore di sistema. L'operatore dedicato aggiungerà nel SW i parametri per la generazione dei token JWT corretti e procederà a validare/inviare nuovamente i referti.</t>
+    <t>2024-09-16T10:08:12Z</t>
+  </si>
+  <si>
+    <t>d3e93b1b81deb548</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.7b2b38268b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore vocabolario: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: XXX]</t>
+  </si>
+  <si>
+    <t>2024-09-16T10:31:48Z</t>
+  </si>
+  <si>
+    <t>3481266871d97496</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1106e738e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3542,7 +3539,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F57" sqref="F57"/>
+      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3612,7 @@
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="61"/>
       <c r="F3" s="6"/>
@@ -3641,7 +3638,7 @@
       <c r="A4" s="65"/>
       <c r="B4" s="66"/>
       <c r="C4" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="61"/>
       <c r="E4" s="4"/>
@@ -3844,16 +3841,16 @@
         <v>44</v>
       </c>
       <c r="F10" s="32">
-        <v>45498</v>
+        <v>45545</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>53</v>
@@ -3867,10 +3864,10 @@
         <v>53</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="34" t="s">
         <v>131</v>
@@ -3879,7 +3876,7 @@
         <v>53</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="T10" s="34"/>
       <c r="U10" s="35"/>
@@ -3905,16 +3902,16 @@
         <v>44</v>
       </c>
       <c r="F11" s="32">
-        <v>45502</v>
+        <v>45547</v>
       </c>
       <c r="G11" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>265</v>
-      </c>
       <c r="I11" s="33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>53</v>
@@ -3928,7 +3925,7 @@
         <v>53</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>53</v>
@@ -3940,7 +3937,7 @@
         <v>53</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="T11" s="34"/>
       <c r="U11" s="35"/>
@@ -3966,16 +3963,16 @@
         <v>50</v>
       </c>
       <c r="F12" s="32">
-        <v>45498</v>
+        <v>45545</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>53</v>
@@ -3989,7 +3986,7 @@
         <v>53</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>53</v>
@@ -4001,7 +3998,7 @@
         <v>53</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="T12" s="34"/>
       <c r="U12" s="35"/>
@@ -4027,16 +4024,16 @@
         <v>50</v>
       </c>
       <c r="F13" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G13" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="33" t="s">
-        <v>267</v>
-      </c>
       <c r="I13" s="33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>53</v>
@@ -4050,7 +4047,7 @@
         <v>53</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>53</v>
@@ -4062,7 +4059,7 @@
         <v>53</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="T13" s="34"/>
       <c r="U13" s="35"/>
@@ -4088,7 +4085,7 @@
         <v>143</v>
       </c>
       <c r="F14" s="32">
-        <v>45498</v>
+        <v>45545</v>
       </c>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -4105,7 +4102,7 @@
         <v>53</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P14" s="34" t="s">
         <v>53</v>
@@ -4117,7 +4114,7 @@
         <v>53</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35" t="s">
@@ -4162,7 +4159,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P15" s="34" t="s">
         <v>53</v>
@@ -4174,7 +4171,7 @@
         <v>53</v>
       </c>
       <c r="S15" s="34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35" t="s">
@@ -4202,16 +4199,16 @@
         <v>168</v>
       </c>
       <c r="F16" s="32">
-        <v>45498</v>
+        <v>45545</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>53</v>
@@ -4225,7 +4222,7 @@
         <v>53</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P16" s="34" t="s">
         <v>53</v>
@@ -4237,7 +4234,7 @@
         <v>53</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T16" s="34"/>
       <c r="U16" s="35"/>
@@ -4263,16 +4260,16 @@
         <v>169</v>
       </c>
       <c r="F17" s="32">
-        <v>45498</v>
+        <v>45546</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H17" s="33" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="J17" s="34" t="s">
         <v>53</v>
@@ -4286,7 +4283,7 @@
         <v>53</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P17" s="34" t="s">
         <v>53</v>
@@ -4298,7 +4295,7 @@
         <v>53</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T17" s="34"/>
       <c r="U17" s="35"/>
@@ -4365,16 +4362,16 @@
         <v>61</v>
       </c>
       <c r="F19" s="32">
-        <v>45498</v>
+        <v>45546</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J19" s="34" t="s">
         <v>53</v>
@@ -4388,7 +4385,7 @@
         <v>53</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="P19" s="34" t="s">
         <v>53</v>
@@ -4400,7 +4397,7 @@
         <v>53</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T19" s="34"/>
       <c r="U19" s="35"/>
@@ -4426,16 +4423,16 @@
         <v>170</v>
       </c>
       <c r="F20" s="32">
-        <v>45498</v>
+        <v>45546</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="J20" s="34" t="s">
         <v>53</v>
@@ -4449,7 +4446,7 @@
         <v>53</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P20" s="34" t="s">
         <v>53</v>
@@ -4461,7 +4458,7 @@
         <v>53</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T20" s="34"/>
       <c r="U20" s="35"/>
@@ -4528,16 +4525,16 @@
         <v>172</v>
       </c>
       <c r="F22" s="32">
-        <v>45498</v>
+        <v>45546</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="J22" s="34" t="s">
         <v>53</v>
@@ -4551,7 +4548,7 @@
         <v>53</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>53</v>
@@ -4563,7 +4560,7 @@
         <v>53</v>
       </c>
       <c r="S22" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T22" s="34"/>
       <c r="U22" s="35"/>
@@ -4630,16 +4627,16 @@
         <v>67</v>
       </c>
       <c r="F24" s="32">
-        <v>45498</v>
+        <v>45546</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H24" s="33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I24" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J24" s="34" t="s">
         <v>53</v>
@@ -4653,7 +4650,7 @@
         <v>53</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P24" s="34" t="s">
         <v>53</v>
@@ -4665,7 +4662,7 @@
         <v>53</v>
       </c>
       <c r="S24" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T24" s="34"/>
       <c r="U24" s="35"/>
@@ -4691,16 +4688,16 @@
         <v>69</v>
       </c>
       <c r="F25" s="32">
-        <v>45498</v>
+        <v>45546</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="H25" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>53</v>
@@ -4714,7 +4711,7 @@
         <v>53</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="P25" s="34" t="s">
         <v>53</v>
@@ -4726,7 +4723,7 @@
         <v>53</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T25" s="34"/>
       <c r="U25" s="35"/>
@@ -4752,16 +4749,16 @@
         <v>174</v>
       </c>
       <c r="F26" s="32">
-        <v>45498</v>
+        <v>45547</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H26" s="33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I26" s="33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="J26" s="34" t="s">
         <v>53</v>
@@ -4775,7 +4772,7 @@
         <v>53</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P26" s="34" t="s">
         <v>53</v>
@@ -4787,7 +4784,7 @@
         <v>53</v>
       </c>
       <c r="S26" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T26" s="34"/>
       <c r="U26" s="35"/>
@@ -4813,16 +4810,16 @@
         <v>175</v>
       </c>
       <c r="F27" s="32">
-        <v>45498</v>
+        <v>45547</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>53</v>
@@ -4836,7 +4833,7 @@
         <v>53</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="P27" s="34" t="s">
         <v>53</v>
@@ -4848,7 +4845,7 @@
         <v>53</v>
       </c>
       <c r="S27" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T27" s="34"/>
       <c r="U27" s="35"/>
@@ -4884,7 +4881,7 @@
         <v>142</v>
       </c>
       <c r="L28" s="34" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
@@ -4927,7 +4924,7 @@
         <v>142</v>
       </c>
       <c r="L29" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M29" s="34"/>
       <c r="N29" s="34"/>
@@ -4960,16 +4957,16 @@
         <v>75</v>
       </c>
       <c r="F30" s="32">
-        <v>45498</v>
+        <v>45547</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="I30" s="33" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>53</v>
@@ -4983,7 +4980,7 @@
         <v>53</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P30" s="34" t="s">
         <v>53</v>
@@ -4995,7 +4992,7 @@
         <v>53</v>
       </c>
       <c r="S30" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T30" s="34"/>
       <c r="U30" s="35"/>
@@ -5031,7 +5028,7 @@
         <v>142</v>
       </c>
       <c r="L31" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M31" s="34"/>
       <c r="N31" s="34"/>
@@ -5064,16 +5061,16 @@
         <v>178</v>
       </c>
       <c r="F32" s="32">
-        <v>45498</v>
+        <v>45547</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J32" s="34" t="s">
         <v>53</v>
@@ -5087,7 +5084,7 @@
         <v>53</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P32" s="34" t="s">
         <v>53</v>
@@ -5099,7 +5096,7 @@
         <v>53</v>
       </c>
       <c r="S32" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T32" s="34"/>
       <c r="U32" s="35"/>
@@ -5125,16 +5122,16 @@
         <v>80</v>
       </c>
       <c r="F33" s="32">
-        <v>45502</v>
+        <v>45547</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I33" s="33" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J33" s="34" t="s">
         <v>53</v>
@@ -5148,7 +5145,7 @@
         <v>53</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P33" s="34" t="s">
         <v>53</v>
@@ -5160,7 +5157,7 @@
         <v>53</v>
       </c>
       <c r="S33" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T33" s="34"/>
       <c r="U33" s="35"/>
@@ -5227,7 +5224,7 @@
         <v>180</v>
       </c>
       <c r="F35" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>268</v>
@@ -5274,7 +5271,7 @@
         <v>181</v>
       </c>
       <c r="F36" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>271</v>
@@ -5321,7 +5318,7 @@
         <v>182</v>
       </c>
       <c r="F37" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>274</v>
@@ -5368,7 +5365,7 @@
         <v>183</v>
       </c>
       <c r="F38" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>277</v>
@@ -5415,7 +5412,7 @@
         <v>87</v>
       </c>
       <c r="F39" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>280</v>
@@ -5438,7 +5435,7 @@
         <v>53</v>
       </c>
       <c r="O39" s="34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P39" s="34" t="s">
         <v>53</v>
@@ -5450,7 +5447,7 @@
         <v>53</v>
       </c>
       <c r="S39" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T39" s="34"/>
       <c r="U39" s="35"/>
@@ -5476,7 +5473,7 @@
         <v>184</v>
       </c>
       <c r="F40" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>283</v>
@@ -5499,7 +5496,7 @@
         <v>53</v>
       </c>
       <c r="O40" s="34" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="P40" s="34" t="s">
         <v>53</v>
@@ -5511,7 +5508,7 @@
         <v>53</v>
       </c>
       <c r="S40" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T40" s="34"/>
       <c r="U40" s="35"/>
@@ -5578,16 +5575,16 @@
         <v>186</v>
       </c>
       <c r="F42" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>53</v>
@@ -5601,7 +5598,7 @@
         <v>53</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="P42" s="34" t="s">
         <v>53</v>
@@ -5613,7 +5610,7 @@
         <v>53</v>
       </c>
       <c r="S42" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T42" s="34"/>
       <c r="U42" s="35"/>
@@ -5639,16 +5636,16 @@
         <v>187</v>
       </c>
       <c r="F43" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>53</v>
@@ -5662,7 +5659,7 @@
         <v>53</v>
       </c>
       <c r="O43" s="34" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P43" s="34" t="s">
         <v>53</v>
@@ -5674,7 +5671,7 @@
         <v>53</v>
       </c>
       <c r="S43" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T43" s="34"/>
       <c r="U43" s="35"/>
@@ -5751,7 +5748,7 @@
         <v>142</v>
       </c>
       <c r="L45" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
@@ -5825,16 +5822,16 @@
         <v>96</v>
       </c>
       <c r="F47" s="32">
-        <v>45502</v>
+        <v>45548</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>53</v>
@@ -5848,7 +5845,7 @@
         <v>53</v>
       </c>
       <c r="O47" s="34" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P47" s="34" t="s">
         <v>53</v>
@@ -5860,7 +5857,7 @@
         <v>53</v>
       </c>
       <c r="S47" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T47" s="34"/>
       <c r="U47" s="35"/>
@@ -5886,16 +5883,16 @@
         <v>98</v>
       </c>
       <c r="F48" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>53</v>
@@ -5909,7 +5906,7 @@
         <v>53</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="P48" s="34" t="s">
         <v>53</v>
@@ -5921,7 +5918,7 @@
         <v>53</v>
       </c>
       <c r="S48" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T48" s="34"/>
       <c r="U48" s="35"/>
@@ -5947,16 +5944,16 @@
         <v>159</v>
       </c>
       <c r="F49" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>53</v>
@@ -5970,7 +5967,7 @@
         <v>53</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="P49" s="34" t="s">
         <v>53</v>
@@ -5982,7 +5979,7 @@
         <v>53</v>
       </c>
       <c r="S49" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T49" s="34"/>
       <c r="U49" s="35"/>
@@ -6008,16 +6005,16 @@
         <v>160</v>
       </c>
       <c r="F50" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="J50" s="34" t="s">
         <v>53</v>
@@ -6031,7 +6028,7 @@
         <v>53</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="P50" s="34" t="s">
         <v>53</v>
@@ -6043,7 +6040,7 @@
         <v>53</v>
       </c>
       <c r="S50" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T50" s="34"/>
       <c r="U50" s="35"/>
@@ -6069,16 +6066,16 @@
         <v>161</v>
       </c>
       <c r="F51" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="J51" s="34" t="s">
         <v>53</v>
@@ -6092,7 +6089,7 @@
         <v>53</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="P51" s="34" t="s">
         <v>53</v>
@@ -6104,7 +6101,7 @@
         <v>53</v>
       </c>
       <c r="S51" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T51" s="34"/>
       <c r="U51" s="35"/>
@@ -6140,7 +6137,7 @@
         <v>142</v>
       </c>
       <c r="L52" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M52" s="34"/>
       <c r="N52" s="34"/>
@@ -6173,16 +6170,16 @@
         <v>163</v>
       </c>
       <c r="F53" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>53</v>
@@ -6196,7 +6193,7 @@
         <v>53</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="P53" s="34" t="s">
         <v>53</v>
@@ -6208,7 +6205,7 @@
         <v>53</v>
       </c>
       <c r="S53" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T53" s="34"/>
       <c r="U53" s="35"/>
@@ -6244,7 +6241,7 @@
         <v>142</v>
       </c>
       <c r="L54" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
@@ -6277,16 +6274,16 @@
         <v>165</v>
       </c>
       <c r="F55" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>53</v>
@@ -6300,7 +6297,7 @@
         <v>53</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P55" s="34" t="s">
         <v>53</v>
@@ -6312,7 +6309,7 @@
         <v>53</v>
       </c>
       <c r="S55" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T55" s="34"/>
       <c r="U55" s="35"/>
@@ -6338,16 +6335,16 @@
         <v>166</v>
       </c>
       <c r="F56" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="J56" s="34" t="s">
         <v>53</v>
@@ -6361,7 +6358,7 @@
         <v>53</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P56" s="34" t="s">
         <v>53</v>
@@ -6373,7 +6370,7 @@
         <v>53</v>
       </c>
       <c r="S56" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T56" s="34"/>
       <c r="U56" s="35"/>
@@ -6440,16 +6437,16 @@
         <v>191</v>
       </c>
       <c r="F58" s="32">
-        <v>45502</v>
+        <v>45551</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J58" s="34" t="s">
         <v>53</v>
@@ -6487,16 +6484,16 @@
         <v>157</v>
       </c>
       <c r="F59" s="41">
-        <v>45503</v>
+        <v>45547</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="H59" s="42" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="J59" s="43" t="s">
         <v>53</v>
@@ -6534,16 +6531,16 @@
         <v>158</v>
       </c>
       <c r="F60" s="48">
-        <v>45503</v>
+        <v>45547</v>
       </c>
       <c r="G60" s="49" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
       <c r="I60" s="49" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="J60" s="50" t="s">
         <v>53</v>
@@ -11168,8 +11165,8 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -11177,7 +11174,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10 J14:J60 J12 M10:N10 M12:N12 M14:N60 P10:R10 P12:R12 P14:R60</xm:sqref>
+          <xm:sqref>J10:J60 M10:N60 P10:R60</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
@@ -13448,6 +13445,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -13705,15 +13711,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
@@ -13732,6 +13729,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DA7F5-158B-4F2F-BE68-E8B30B468193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13748,12 +13753,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\#DM TEST RAD_RSA 20240902\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\#DM TEST RAD_RSA 20240917\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839F9B8-9B29-4715-B2EC-8061B481CD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96B40E-91EB-4044-BC36-556A5B0591F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1395" windowWidth="22785" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="900" windowWidth="22785" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1048,24 +1048,6 @@
     <t>Errore vocabolario: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: XXXX]</t>
   </si>
   <si>
-    <t>2024-09-12T16:01:59Z</t>
-  </si>
-  <si>
-    <t>2fc00a6323d96d88</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1d25b47b9b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-09-12T16:06:07Z</t>
-  </si>
-  <si>
-    <t>a20fbea8f3d19a97</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2cf18d9a5d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-09-12T16:25:15Z</t>
   </si>
   <si>
@@ -1090,33 +1072,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.56bda671bc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-09-13T10:05:59Z</t>
-  </si>
-  <si>
-    <t>b37a7b29b1b2b8c2</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d5aebe7f01^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-09-13T10:22:02Z</t>
-  </si>
-  <si>
-    <t>59f7ed1f868c1374</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d8cdafe64e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-09-13T10:29:57Z</t>
-  </si>
-  <si>
-    <t>36319a9525d04f8c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8d9f06859e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-09-13T15:05:50Z</t>
   </si>
   <si>
@@ -1259,6 +1214,51 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.1106e738e1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-18T08:46:13Z</t>
+  </si>
+  <si>
+    <t>c85e18a03ba40a97</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.fe7cf294a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-18T08:49:08Z</t>
+  </si>
+  <si>
+    <t>bae8cea3930c71ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.9d77c96144^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-18T08:56:18Z</t>
+  </si>
+  <si>
+    <t>59dbdb0daec5b1cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d64b9770ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-18T08:57:59Z</t>
+  </si>
+  <si>
+    <t>8020e59b397836b3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.654181908c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-09-18T08:59:36Z</t>
+  </si>
+  <si>
+    <t>daeb9dfd0652ba8e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d665e75581^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3539,7 +3539,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomRight" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3905,10 +3905,10 @@
         <v>45547</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I11" s="33" t="s">
         <v>197</v>
@@ -4027,10 +4027,10 @@
         <v>45548</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>197</v>
@@ -4059,7 +4059,7 @@
         <v>53</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="T13" s="34"/>
       <c r="U13" s="35"/>
@@ -5227,13 +5227,13 @@
         <v>45548</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J35" s="34" t="s">
         <v>53</v>
@@ -5271,16 +5271,16 @@
         <v>181</v>
       </c>
       <c r="F36" s="32">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="J36" s="34" t="s">
         <v>53</v>
@@ -5318,16 +5318,16 @@
         <v>182</v>
       </c>
       <c r="F37" s="32">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>53</v>
@@ -5365,16 +5365,16 @@
         <v>183</v>
       </c>
       <c r="F38" s="32">
-        <v>45548</v>
+        <v>45553</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="J38" s="34" t="s">
         <v>53</v>
@@ -5415,13 +5415,13 @@
         <v>45548</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="J39" s="34" t="s">
         <v>53</v>
@@ -5476,13 +5476,13 @@
         <v>45548</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="J40" s="34" t="s">
         <v>53</v>
@@ -5496,7 +5496,7 @@
         <v>53</v>
       </c>
       <c r="O40" s="34" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="P40" s="34" t="s">
         <v>53</v>
@@ -5578,13 +5578,13 @@
         <v>45548</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="J42" s="34" t="s">
         <v>53</v>
@@ -5598,7 +5598,7 @@
         <v>53</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="P42" s="34" t="s">
         <v>53</v>
@@ -5639,13 +5639,13 @@
         <v>45548</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>53</v>
@@ -5825,13 +5825,13 @@
         <v>45548</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>53</v>
@@ -5886,13 +5886,13 @@
         <v>45551</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="H48" s="33" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>53</v>
@@ -5906,7 +5906,7 @@
         <v>53</v>
       </c>
       <c r="O48" s="34" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="P48" s="34" t="s">
         <v>53</v>
@@ -5947,13 +5947,13 @@
         <v>45551</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="I49" s="33" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>53</v>
@@ -5967,7 +5967,7 @@
         <v>53</v>
       </c>
       <c r="O49" s="34" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="P49" s="34" t="s">
         <v>53</v>
@@ -6008,13 +6008,13 @@
         <v>45551</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="H50" s="33" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="J50" s="34" t="s">
         <v>53</v>
@@ -6028,7 +6028,7 @@
         <v>53</v>
       </c>
       <c r="O50" s="34" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="P50" s="34" t="s">
         <v>53</v>
@@ -6069,13 +6069,13 @@
         <v>45551</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="H51" s="33" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="I51" s="33" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="J51" s="34" t="s">
         <v>53</v>
@@ -6089,7 +6089,7 @@
         <v>53</v>
       </c>
       <c r="O51" s="34" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="P51" s="34" t="s">
         <v>53</v>
@@ -6173,13 +6173,13 @@
         <v>45551</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="J53" s="34" t="s">
         <v>53</v>
@@ -6193,7 +6193,7 @@
         <v>53</v>
       </c>
       <c r="O53" s="34" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="P53" s="34" t="s">
         <v>53</v>
@@ -6277,13 +6277,13 @@
         <v>45551</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="I55" s="33" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>53</v>
@@ -6297,7 +6297,7 @@
         <v>53</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="P55" s="34" t="s">
         <v>53</v>
@@ -6338,13 +6338,13 @@
         <v>45551</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="I56" s="33" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="J56" s="34" t="s">
         <v>53</v>
@@ -6358,7 +6358,7 @@
         <v>53</v>
       </c>
       <c r="O56" s="34" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="P56" s="34" t="s">
         <v>53</v>
@@ -6440,13 +6440,13 @@
         <v>45551</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="I58" s="33" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="J58" s="34" t="s">
         <v>53</v>
@@ -6484,16 +6484,16 @@
         <v>157</v>
       </c>
       <c r="F59" s="41">
-        <v>45547</v>
+        <v>45553</v>
       </c>
       <c r="G59" s="42" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="H59" s="42" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="I59" s="42" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="J59" s="43" t="s">
         <v>53</v>
@@ -6531,16 +6531,16 @@
         <v>158</v>
       </c>
       <c r="F60" s="48">
-        <v>45547</v>
+        <v>45553</v>
       </c>
       <c r="G60" s="49" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="H60" s="49" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="I60" s="49" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="J60" s="50" t="s">
         <v>53</v>

--- a/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#ALMAVALUESRLUNIPERSONALEXX/ALMAVALUE_SRL/Doctor_Manager_DMFSE/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\#DM TEST RAD_RSA 20240917\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\plauriola\Desktop\#DM TEST RAD_RSA 20240918\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96B40E-91EB-4044-BC36-556A5B0591F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAEAFF8-D3B2-432B-A000-B3B354A7F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="900" windowWidth="22785" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="1245" windowWidth="22785" windowHeight="12930" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1252,13 +1252,13 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.654181908c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-09-18T08:59:36Z</t>
-  </si>
-  <si>
-    <t>daeb9dfd0652ba8e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.d665e75581^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-09-18T15:03:43Z</t>
+  </si>
+  <si>
+    <t>b986be55c635db08</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.2933aa0020^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3535,11 +3535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W644"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="78" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="F35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I66" sqref="I66"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13433,27 +13433,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -13711,32 +13690,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DA7F5-158B-4F2F-BE68-E8B30B468193}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13753,4 +13728,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>